--- a/Invitados de boda.xlsx
+++ b/Invitados de boda.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="435" yWindow="45" windowWidth="9600" windowHeight="7995" activeTab="1"/>
   </bookViews>
@@ -18,17 +13,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTA DETALLE'!$A$5:$I$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LISTA TOTAL'!$A$2:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LISTA TOTAL'!$A$2:$D$94</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="158">
   <si>
     <t>LISTA DE INVITADOS A LA BODA</t>
   </si>
@@ -360,9 +355,6 @@
     <t>Jaime Girón</t>
   </si>
   <si>
-    <t>Jaime Girón jr</t>
-  </si>
-  <si>
     <t>Javier Giron</t>
   </si>
   <si>
@@ -486,24 +478,12 @@
     <t>Maykel</t>
   </si>
   <si>
-    <t>Amy</t>
-  </si>
-  <si>
     <t>Erick Gonzalez</t>
   </si>
   <si>
     <t>Escala Girón</t>
   </si>
   <si>
-    <t>Oriel Chaverra</t>
-  </si>
-  <si>
-    <t>Luis Mendez</t>
-  </si>
-  <si>
-    <t>Astrid Hernandez</t>
-  </si>
-  <si>
     <t>Etiquetas de fila</t>
   </si>
   <si>
@@ -511,12 +491,18 @@
   </si>
   <si>
     <t>Elvis Cordoba</t>
+  </si>
+  <si>
+    <t>Victor Colona (tio)</t>
+  </si>
+  <si>
+    <t>Itzel Colona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,22 +625,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -662,6 +642,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,9 +667,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="HP" refreshedDate="43096.977141435185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="CEBEBCA OFICINA" refreshedDate="43097.766294328707" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="90">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:C98" sheet="LISTA TOTAL"/>
+    <worksheetSource ref="A2:C92" sheet="LISTA TOTAL"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Invitados" numFmtId="0">
@@ -711,7 +697,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="96">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="90">
   <r>
     <s v="Cely"/>
     <n v="1"/>
@@ -738,13 +724,8 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="Maria luisa"/>
-    <n v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
     <s v="Prof. Gonzales"/>
-    <n v="1"/>
+    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -818,21 +799,6 @@
     <x v="1"/>
   </r>
   <r>
-    <s v="Oriel Chaverra"/>
-    <n v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Luis Mendez"/>
-    <n v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Astrid Hernandez"/>
-    <n v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
     <s v="Gustavo Rueda"/>
     <n v="2"/>
     <x v="1"/>
@@ -894,7 +860,7 @@
   </r>
   <r>
     <s v="Padrinos"/>
-    <n v="5"/>
+    <n v="3"/>
     <x v="2"/>
   </r>
   <r>
@@ -934,12 +900,7 @@
   </r>
   <r>
     <s v="Jaime Girón"/>
-    <n v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Jaime Girón jr"/>
-    <n v="2"/>
+    <n v="4"/>
     <x v="3"/>
   </r>
   <r>
@@ -959,7 +920,7 @@
   </r>
   <r>
     <s v="Raul Colona"/>
-    <n v="5"/>
+    <n v="6"/>
     <x v="3"/>
   </r>
   <r>
@@ -974,22 +935,22 @@
   </r>
   <r>
     <s v="Victor Colona"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Victor Colona (tio)"/>
     <n v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Victor Colona"/>
+    <s v="Petana"/>
+    <n v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Maykel"/>
     <n v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Petana"/>
-    <n v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Maykel"/>
-    <n v="2"/>
     <x v="4"/>
   </r>
   <r>
@@ -1128,18 +1089,13 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="Melendes"/>
-    <n v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
     <s v="Paola y Martin"/>
     <n v="2"/>
     <x v="4"/>
   </r>
   <r>
     <s v="Magallón"/>
-    <n v="2"/>
+    <n v="3"/>
     <x v="4"/>
   </r>
   <r>
@@ -1148,8 +1104,8 @@
     <x v="4"/>
   </r>
   <r>
-    <s v="Amy"/>
-    <n v="2"/>
+    <s v="Kevin"/>
+    <n v="1"/>
     <x v="4"/>
   </r>
   <r>
@@ -1189,14 +1145,14 @@
   </r>
   <r>
     <s v="Karla y Karina"/>
-    <n v="3"/>
+    <n v="2"/>
     <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:G7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -1288,7 +1244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1323,7 +1279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1549,15 +1505,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -1565,31 +1521,31 @@
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="17">
         <f>SUM(C18,C31,I16,I34,L40)</f>
         <v>193</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="K4" t="s">
         <v>99</v>
       </c>
@@ -1628,24 +1584,24 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="6">
         <v>1</v>
       </c>
@@ -1657,24 +1613,24 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="6">
         <v>1</v>
       </c>
@@ -1686,19 +1642,19 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="D8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="6">
         <v>1</v>
       </c>
@@ -1714,10 +1670,10 @@
         <v>84</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="6">
         <v>5</v>
       </c>
@@ -1736,24 +1692,24 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="6">
         <v>1</v>
       </c>
@@ -1765,24 +1721,24 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="6">
         <v>1</v>
       </c>
@@ -1794,24 +1750,24 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="6">
         <v>1</v>
       </c>
@@ -1823,24 +1779,24 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="30"/>
+      <c r="G13" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="26"/>
       <c r="I13" s="6">
         <v>2</v>
       </c>
@@ -1852,22 +1808,22 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="6"/>
       <c r="K14" t="s">
         <v>63</v>
@@ -1877,22 +1833,22 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="10">
         <v>2</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="13"/>
       <c r="K15" t="s">
         <v>60</v>
@@ -1910,10 +1866,10 @@
         <f>SUM(C6:C15)</f>
         <v>21</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="15">
         <v>2</v>
       </c>
@@ -1936,10 +1892,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="7">
         <f>SUM(F6:F16)</f>
         <v>31</v>
@@ -1955,10 +1911,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="12">
         <f>SUM(C16,F17)</f>
         <v>52</v>
@@ -1985,17 +1941,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="K20" t="s">
         <v>53</v>
       </c>
@@ -2033,24 +1989,24 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="6">
         <v>5</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="6">
         <v>5</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="6">
         <v>1</v>
       </c>
@@ -2062,24 +2018,24 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="6">
         <v>2</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="6">
         <v>2</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="6">
         <v>3</v>
       </c>
@@ -2091,19 +2047,19 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="D24" s="30" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="D24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="6">
         <v>2</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="29"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="6">
         <v>2</v>
       </c>
@@ -2119,17 +2075,17 @@
         <v>36</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="6">
         <v>3</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="29"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="6">
         <v>2</v>
       </c>
@@ -2141,17 +2097,17 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="6">
         <v>2</v>
       </c>
@@ -2170,17 +2126,17 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="6">
         <v>3</v>
       </c>
@@ -2199,17 +2155,17 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="13">
         <v>5</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="13">
         <v>2</v>
       </c>
@@ -2274,10 +2230,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="12">
         <f>SUM(C29,F29)</f>
         <v>35</v>
@@ -2343,8 +2299,8 @@
       </c>
     </row>
     <row r="35" spans="7:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
       <c r="K35" t="s">
         <v>9</v>
       </c>
@@ -2410,18 +2366,46 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A9:B9"/>
@@ -2438,46 +2422,18 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2486,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,18 +2460,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="1"/>
       <c r="F1" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2533,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="24">
         <v>23</v>
@@ -2541,162 +2497,162 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>30</v>
+      <c r="A3" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="19">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
       <c r="F5" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>126</v>
+      <c r="A6" t="s">
+        <v>104</v>
       </c>
       <c r="B6" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="24">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="21">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>118</v>
-      </c>
       <c r="G7" s="24">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="21">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="19">
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="21">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="19">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="21">
-        <v>2</v>
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="19">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B11" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B12" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22">
-        <v>5</v>
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="19">
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="22">
-        <v>2</v>
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="19">
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>116</v>
@@ -2704,43 +2660,43 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B15" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B16" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B17" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B18" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>115</v>
@@ -2748,208 +2704,208 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="B20" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B21" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B22" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="B23" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B25" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B26" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B27" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B28" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B29" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="19">
-        <v>2</v>
+      <c r="A30" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="22">
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
+      <c r="A31" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="B31" s="19">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="19">
+      <c r="A32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="21">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="19">
+      <c r="A33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="21">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="19">
+      <c r="A34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="21">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B35" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="19">
+      <c r="A36" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="22">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B37" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
@@ -2957,10 +2913,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B38" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>114</v>
@@ -2968,32 +2924,32 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B40" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B41" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>113</v>
@@ -3001,10 +2957,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B42" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>113</v>
@@ -3012,10 +2968,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="B43" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
         <v>113</v>
@@ -3023,10 +2979,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B44" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
@@ -3034,10 +2990,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B45" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>113</v>
@@ -3051,585 +3007,541 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47" s="19">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B48" s="19">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B49" s="19">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B50" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B51" s="19">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="B52" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B53" s="19">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="19">
+        <v>7</v>
+      </c>
+      <c r="B54" s="20">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B55" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B56" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B57" s="19">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B58" s="19">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="B59" s="19">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="20">
+        <v>129</v>
+      </c>
+      <c r="B60" s="19">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B61" s="19">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="B62" s="19">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B63" s="19">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B64" s="19">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B65" s="19">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B66" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="B67" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>148</v>
+      <c r="A68" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B68" s="19">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="21">
+      <c r="A69" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="19">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="21">
+        <v>45</v>
+      </c>
+      <c r="B70" s="19">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B71" s="19">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B72" s="19">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B73" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B74" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B75" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="B76" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B77" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B78" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B79" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B80" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B81" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B82" s="19">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B82" s="21">
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="19">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B83" s="21">
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="B84" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="B85" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B86" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B87" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B88" s="22">
-        <v>2</v>
+      <c r="A88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="19">
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B89" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B90" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B91" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B92" s="19">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="B93" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B94" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>140</v>
-      </c>
-      <c r="B95" s="19">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="19">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" s="19">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="19">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D97">
-    <sortState ref="A40:E55">
-      <sortCondition ref="A2:A97"/>
+  <autoFilter ref="A2:D94">
+    <sortState ref="A3:D94">
+      <sortCondition descending="1" ref="B2:B94"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
